--- a/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_financial_svcs_non_bank_insurance.xlsx
+++ b/teaching/traditional_assets/database/data/isle_of_man/isle_of_man_financial_svcs_non_bank_insurance.xlsx
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.25</v>
+        <v>0.183</v>
       </c>
       <c r="E2">
-        <v>0.0984</v>
+        <v>0.0672</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -603,16 +603,16 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.0005261523031143202</v>
+        <v>0.004589019573332522</v>
       </c>
       <c r="J2">
-        <v>0.0004724877662154807</v>
+        <v>0.004269351027202547</v>
       </c>
       <c r="K2">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="L2">
-        <v>0.1329113924050633</v>
+        <v>0.1280851063829787</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -636,55 +636,55 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>11.3</v>
+        <v>8.66</v>
       </c>
       <c r="V2">
-        <v>0.7583892617449665</v>
+        <v>0.6713178294573643</v>
       </c>
       <c r="W2">
-        <v>0.1290983606557377</v>
+        <v>0.1127340823970037</v>
       </c>
       <c r="X2">
-        <v>0.04056030359842049</v>
+        <v>0.03214747629219819</v>
       </c>
       <c r="Y2">
-        <v>0.08853805705731722</v>
+        <v>0.08058660610480554</v>
       </c>
       <c r="Z2">
-        <v>0.8806267372990789</v>
+        <v>0.7587794773121016</v>
       </c>
       <c r="AA2">
-        <v>0.0004160853599760687</v>
+        <v>0.003239495940882633</v>
       </c>
       <c r="AB2">
-        <v>0.03922965542313922</v>
+        <v>0.02744178820473649</v>
       </c>
       <c r="AC2">
-        <v>-0.03881357006316315</v>
+        <v>-0.02420229226385385</v>
       </c>
       <c r="AD2">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="AE2">
-        <v>1.302650952080953</v>
+        <v>0.1307902001334287</v>
       </c>
       <c r="AF2">
-        <v>22.50265095208095</v>
+        <v>20.93079020013343</v>
       </c>
       <c r="AG2">
-        <v>11.20265095208095</v>
+        <v>12.27079020013343</v>
       </c>
       <c r="AH2">
-        <v>0.6016325147891418</v>
+        <v>0.6186905501264608</v>
       </c>
       <c r="AI2">
-        <v>0.4573463119699903</v>
+        <v>0.435778593542175</v>
       </c>
       <c r="AJ2">
-        <v>0.4291767519186727</v>
+        <v>0.4875011909665188</v>
       </c>
       <c r="AK2">
-        <v>0.2955637843443744</v>
+        <v>0.311672438824757</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -693,10 +693,10 @@
         <v>0</v>
       </c>
       <c r="AN2">
-        <v>77.65567765567765</v>
+        <v>155.2238805970149</v>
       </c>
       <c r="AP2">
-        <v>41.035351472824</v>
+        <v>91.57306119502559</v>
       </c>
     </row>
     <row r="3">
@@ -716,10 +716,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.25</v>
+        <v>0.183</v>
       </c>
       <c r="E3">
-        <v>0.0984</v>
+        <v>0.0672</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -728,16 +728,16 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0005261523031143202</v>
+        <v>0.004589019573332522</v>
       </c>
       <c r="J3">
-        <v>0.0004724877662154807</v>
+        <v>0.004269351027202547</v>
       </c>
       <c r="K3">
-        <v>3.15</v>
+        <v>3.01</v>
       </c>
       <c r="L3">
-        <v>0.1329113924050633</v>
+        <v>0.1280851063829787</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +761,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>11.3</v>
+        <v>8.66</v>
       </c>
       <c r="V3">
-        <v>0.7583892617449665</v>
+        <v>0.6713178294573643</v>
       </c>
       <c r="W3">
-        <v>0.1290983606557377</v>
+        <v>0.1127340823970037</v>
       </c>
       <c r="X3">
-        <v>0.04056030359842049</v>
+        <v>0.03214747629219819</v>
       </c>
       <c r="Y3">
-        <v>0.08853805705731722</v>
+        <v>0.08058660610480554</v>
       </c>
       <c r="Z3">
-        <v>0.8806267372990789</v>
+        <v>0.7587794773121016</v>
       </c>
       <c r="AA3">
-        <v>0.0004160853599760687</v>
+        <v>0.003239495940882633</v>
       </c>
       <c r="AB3">
-        <v>0.03922965542313922</v>
+        <v>0.02744178820473649</v>
       </c>
       <c r="AC3">
-        <v>-0.03881357006316315</v>
+        <v>-0.02420229226385385</v>
       </c>
       <c r="AD3">
-        <v>21.2</v>
+        <v>20.8</v>
       </c>
       <c r="AE3">
-        <v>1.302650952080953</v>
+        <v>0.1307902001334287</v>
       </c>
       <c r="AF3">
-        <v>22.50265095208095</v>
+        <v>20.93079020013343</v>
       </c>
       <c r="AG3">
-        <v>11.20265095208095</v>
+        <v>12.27079020013343</v>
       </c>
       <c r="AH3">
-        <v>0.6016325147891418</v>
+        <v>0.6186905501264608</v>
       </c>
       <c r="AI3">
-        <v>0.4573463119699903</v>
+        <v>0.435778593542175</v>
       </c>
       <c r="AJ3">
-        <v>0.4291767519186727</v>
+        <v>0.4875011909665188</v>
       </c>
       <c r="AK3">
-        <v>0.2955637843443744</v>
+        <v>0.311672438824757</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="AN3">
-        <v>77.65567765567765</v>
+        <v>155.2238805970149</v>
       </c>
       <c r="AP3">
-        <v>41.035351472824</v>
+        <v>91.57306119502559</v>
       </c>
     </row>
   </sheetData>
